--- a/DECIS/Importing/Files/Donor Intake Sheet.xlsx
+++ b/DECIS/Importing/Files/Donor Intake Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F4F704-EADD-47C4-A6E6-ED868B0A646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0A643-A10C-4E92-BB4D-D3A582CAEDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{06A39DA7-366E-4F96-817A-14AD30240AA6}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>fake@email.com</t>
   </si>
   <si>
-    <t>Intake test asset</t>
+    <t>Duplicate</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DECIS/Importing/Files/Donor Intake Sheet.xlsx
+++ b/DECIS/Importing/Files/Donor Intake Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0A643-A10C-4E92-BB4D-D3A582CAEDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8963680D-29AB-436A-AF70-505601B1585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{06A39DA7-366E-4F96-817A-14AD30240AA6}"/>
+    <workbookView xWindow="1032" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{06A39DA7-366E-4F96-817A-14AD30240AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Asset Info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -82,25 +82,22 @@
     <t>Optiplex 390</t>
   </si>
   <si>
-    <t>BK7FMS19</t>
-  </si>
-  <si>
-    <t>Test Org</t>
-  </si>
-  <si>
-    <t>new intake</t>
-  </si>
-  <si>
-    <t>123 street road</t>
-  </si>
-  <si>
-    <t>555-555-5555</t>
-  </si>
-  <si>
-    <t>fake@email.com</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
+    <t>BK7FMS1</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>1234 Street Road</t>
+  </si>
+  <si>
+    <t>215-555-5555</t>
+  </si>
+  <si>
+    <t>email@fake.org</t>
+  </si>
+  <si>
+    <t>New Test Org</t>
   </si>
 </sst>
 </file>
@@ -480,25 +477,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2234429C-A56F-43FF-956E-6DF1E16735EC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -528,8 +525,8 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="E2">
+        <v>21345</v>
       </c>
     </row>
   </sheetData>
@@ -547,21 +544,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,32 +581,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44399</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>19114</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>12341</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{73D7A749-2B04-428D-A2A0-96F4A4047474}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{788542B9-0017-43C1-BE6D-75FBC954E210}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DECIS/Importing/Files/Donor Intake Sheet.xlsx
+++ b/DECIS/Importing/Files/Donor Intake Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8963680D-29AB-436A-AF70-505601B1585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88189D-2B23-4DA6-BD77-FCCBD889AAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1032" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{06A39DA7-366E-4F96-817A-14AD30240AA6}"/>
+    <workbookView xWindow="1032" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{06A39DA7-366E-4F96-817A-14AD30240AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Asset Info" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Optiplex 390</t>
   </si>
   <si>
-    <t>BK7FMS1</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -97,7 +94,10 @@
     <t>email@fake.org</t>
   </si>
   <si>
-    <t>New Test Org</t>
+    <t>BK55HMS1</t>
+  </si>
+  <si>
+    <t>More Parameters</t>
   </si>
 </sst>
 </file>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2234429C-A56F-43FF-956E-6DF1E16735EC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>21345</v>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C5785-6DAF-4C31-9D00-911067CEC92C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,25 +583,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44399</v>
+        <v>44424</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>19114</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DECIS/Importing/Files/Donor Intake Sheet.xlsx
+++ b/DECIS/Importing/Files/Donor Intake Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\DECIS\DECIS\Importing\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88189D-2B23-4DA6-BD77-FCCBD889AAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629D926F-FB25-4EC3-8DC5-A8FED02294BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1032" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{06A39DA7-366E-4F96-817A-14AD30240AA6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,171 @@
     <t>Optiplex 390</t>
   </si>
   <si>
+    <t>BK7FMS1</t>
+  </si>
+  <si>
+    <t>BKBKMS1</t>
+  </si>
+  <si>
+    <t>Optiplex 3020</t>
+  </si>
+  <si>
+    <t>179MQ02</t>
+  </si>
+  <si>
+    <t>BJVHMS1</t>
+  </si>
+  <si>
+    <t>BKBFMS1</t>
+  </si>
+  <si>
+    <t>BK5HMS1</t>
+  </si>
+  <si>
+    <t>BK6HMS1</t>
+  </si>
+  <si>
+    <t>BKCKMS1</t>
+  </si>
+  <si>
+    <t>BJSKMS1</t>
+  </si>
+  <si>
+    <t>BK5FMS1</t>
+  </si>
+  <si>
+    <t>Optiplex 3040</t>
+  </si>
+  <si>
+    <t>J484KH2</t>
+  </si>
+  <si>
+    <t>Dell Precision Tower 3420</t>
+  </si>
+  <si>
+    <t>11X2XQ2</t>
+  </si>
+  <si>
+    <t>BJWHMS1</t>
+  </si>
+  <si>
+    <t>J443KH2</t>
+  </si>
+  <si>
+    <t>HL45C62</t>
+  </si>
+  <si>
+    <t>47CFHQ2</t>
+  </si>
+  <si>
+    <t>11X1XQ2</t>
+  </si>
+  <si>
+    <t>BJWFSM1</t>
+  </si>
+  <si>
+    <t>BK7LMS1</t>
+  </si>
+  <si>
+    <t>BK9KMS1</t>
+  </si>
+  <si>
+    <t>BK5KMS1</t>
+  </si>
+  <si>
+    <t>BKCLMS1</t>
+  </si>
+  <si>
+    <t>BK9LMS1</t>
+  </si>
+  <si>
+    <t>BKCJMS1</t>
+  </si>
+  <si>
+    <t>BJTFMS1</t>
+  </si>
+  <si>
+    <t>BK8HMS1</t>
+  </si>
+  <si>
+    <t>BK4FMS1</t>
+  </si>
+  <si>
+    <t>BJTKMS1</t>
+  </si>
+  <si>
+    <t>BKCFMS1</t>
+  </si>
+  <si>
+    <t>Note attached: BKCF - GOT BUZZ (HD)</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCS3M</t>
+  </si>
+  <si>
+    <t>P2312H</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCRXM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCSEM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCKLM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCKBM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCSDM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCRRM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCSAM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCS2M</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCRYM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCS6M</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCRTM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCSFM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCS7M</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCRPM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCK6M</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCSKM</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCSPM</t>
+  </si>
+  <si>
+    <t>CN03G21QDC008121YBA06</t>
+  </si>
+  <si>
+    <t>CN0XTK9N7444522NCSMM</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -94,10 +259,7 @@
     <t>email@fake.org</t>
   </si>
   <si>
-    <t>BK55HMS1</t>
-  </si>
-  <si>
-    <t>More Parameters</t>
+    <t>New Test Org</t>
   </si>
 </sst>
 </file>
@@ -475,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2234429C-A56F-43FF-956E-6DF1E16735EC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,10 +685,679 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>21345</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +1375,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,25 +1414,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44424</v>
+        <v>44399</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>19114</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
